--- a/data/trans_bre/P0902-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.413021562828927</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.767521718186367</v>
+        <v>4.767521718186366</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6010225121316023</v>
@@ -649,7 +649,7 @@
         <v>0.4433756359876296</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.6195728835463545</v>
+        <v>0.6195728835463543</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1322187107455445</v>
+        <v>-0.1350237201191639</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.705385709121883</v>
+        <v>1.570106400995763</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8349040002976507</v>
+        <v>-0.9578025503417633</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.379520233780154</v>
+        <v>1.122599048786914</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.04408788240944399</v>
+        <v>-0.02801752875095215</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2044454314516189</v>
+        <v>0.1654673675337774</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1131562413988906</v>
+        <v>-0.1094232954141532</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1467608956601829</v>
+        <v>0.1076218768835715</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.683291149890209</v>
+        <v>8.91048201747612</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.72890460072763</v>
+        <v>10.76722221137462</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.265914929261925</v>
+        <v>8.485159261757801</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.422474562808354</v>
+        <v>7.926388561551949</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.5423358345128</v>
+        <v>1.616113384740608</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.413935296837415</v>
+        <v>2.640114421734563</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.32231294794248</v>
+        <v>1.374519722943996</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.43740880308978</v>
+        <v>1.272920446199627</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5161971018849734</v>
+        <v>0.1997968207006145</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.100006891976015</v>
+        <v>-3.958734081632096</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.02603424569657673</v>
+        <v>0.4275559254194484</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6965538166180167</v>
+        <v>0.9788851839438317</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04129277943782274</v>
+        <v>-0.0004733092649605785</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3367666128551327</v>
+        <v>-0.3445751712429786</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02468189884481383</v>
+        <v>0.05987453072801434</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.06152182099427018</v>
+        <v>0.07542563052854288</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.103244257574449</v>
+        <v>7.693756324141529</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.314094403100792</v>
+        <v>5.73824822633759</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.141572518616471</v>
+        <v>8.082906392605764</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.504673008555454</v>
+        <v>8.794335676426854</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.332284709645378</v>
+        <v>2.320232378742414</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6150703820050875</v>
+        <v>0.6804577302531792</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.881199434334663</v>
+        <v>2.087285111402262</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.198163215068003</v>
+        <v>1.217135241561508</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.123133313320013</v>
+        <v>5.404060649468978</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2939360222986588</v>
+        <v>0.5138223821694025</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.869243404866126</v>
+        <v>6.199127891656319</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.760070071967824</v>
+        <v>3.06901478738274</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5814783970278188</v>
+        <v>0.598619798555531</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01651513206907407</v>
+        <v>0.04811900145356705</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6492627425673934</v>
+        <v>0.5942400824628015</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1679924252725141</v>
+        <v>0.1877166570345981</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.49649635042111</v>
+        <v>18.1867889465435</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.11324781704146</v>
+        <v>12.75165635454913</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.92513521717969</v>
+        <v>20.51250332946749</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.23478339621827</v>
+        <v>14.72872404193363</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.723777710061185</v>
+        <v>2.855297682709682</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.036823832543833</v>
+        <v>1.126268778739015</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.8086995802166</v>
+        <v>2.714143537620301</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.230440841630091</v>
+        <v>1.219300626390641</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.11957693594831</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5077172852599204</v>
+        <v>0.507717285259926</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2029528192242915</v>
@@ -949,7 +949,7 @@
         <v>0.196252351913708</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.03222081316852801</v>
+        <v>0.03222081316852837</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.7000958045808947</v>
+        <v>-0.9023763217798337</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.956394797344215</v>
+        <v>-1.179692179111204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.009392231998735</v>
+        <v>-0.741271538397116</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.816523503628988</v>
+        <v>-2.719268239957482</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05989999047306555</v>
+        <v>-0.08482840026816711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07016370331155948</v>
+        <v>-0.0830221600819077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08571872365214926</v>
+        <v>-0.06987538432354543</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1650031468340713</v>
+        <v>-0.1564283213501723</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.242341927730509</v>
+        <v>5.11319397442209</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.017325978060143</v>
+        <v>5.781970383026602</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.366692926154338</v>
+        <v>5.328016821324294</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.36854320259782</v>
+        <v>3.596241425826919</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5802208977600585</v>
+        <v>0.5380282173281062</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5209433721648342</v>
+        <v>0.4976166433041307</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5549560740749542</v>
+        <v>0.5585973319090827</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2427397308711486</v>
+        <v>0.2504430837284317</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.629350243020177</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.473371535779137</v>
+        <v>9.473371535779144</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4154232510382656</v>
@@ -1049,7 +1049,7 @@
         <v>0.7105561212372634</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5795053899235192</v>
+        <v>0.5795053899235195</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.11864148520993</v>
+        <v>-0.2342340111265527</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.80131833493109</v>
+        <v>10.79476660147745</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.365981595703119</v>
+        <v>5.470529968073783</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.346215365049725</v>
+        <v>5.223566787830792</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.01242530104244425</v>
+        <v>-0.02528231036506826</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7155276561254219</v>
+        <v>0.7114796611804893</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3385347697028346</v>
+        <v>0.3503040468893841</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2634469553800148</v>
+        <v>0.2846243489484276</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.567343190337134</v>
+        <v>8.931279007021891</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19.41396019304195</v>
+        <v>19.3008858794039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.51805802256263</v>
+        <v>13.62488699057705</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.50810776464228</v>
+        <v>13.11582638512193</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.045127141897968</v>
+        <v>1.134660901966635</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.896859782990768</v>
+        <v>1.928880822313263</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.201284006260314</v>
+        <v>1.218173158780743</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9696828423783596</v>
+        <v>0.9713890558851717</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>20.09976488821276</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21.64166486903994</v>
+        <v>21.64166486903995</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>4.496572735738399</v>
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>11.51066010315616</v>
+        <v>11.46973351282523</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>15.19312658962775</v>
+        <v>15.47091802874768</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17.13801482838727</v>
+        <v>16.94363617026655</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18.34844124508048</v>
+        <v>18.55652433293846</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>2.05284829976563</v>
+        <v>2.114367274113934</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.282265615754841</v>
+        <v>2.259506873467191</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>4.39723824279211</v>
+        <v>4.482534653522783</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>3.349239853987985</v>
+        <v>3.404495652518946</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.01914750410539</v>
+        <v>17.52454736951369</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.60931056741468</v>
+        <v>22.64545776922662</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23.17794631371709</v>
+        <v>23.04581231514054</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24.80924914881731</v>
+        <v>24.55246241881208</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>9.835270769467904</v>
+        <v>10.96901342310933</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>13.66345835173193</v>
+        <v>12.21688605195527</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>58.56533750344163</v>
+        <v>57.42548848573995</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>22.07550550899044</v>
+        <v>19.95965967611187</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.930310794688155</v>
+        <v>5.000959275604628</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.078412681218948</v>
+        <v>7.023552635216883</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.565230462920516</v>
+        <v>6.634396682692893</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.551668056752751</v>
+        <v>5.723423370525371</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5539405052565511</v>
+        <v>0.5686910367721205</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5940811408867147</v>
+        <v>0.603579574389839</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6579093946667818</v>
+        <v>0.6607833270122677</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.413512228565276</v>
+        <v>0.4234786445925314</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.879156879154961</v>
+        <v>8.004812407976262</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.6222422947196</v>
+        <v>10.7645732979252</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.07520690244781</v>
+        <v>10.14067944428477</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.860681325408484</v>
+        <v>8.794189808230421</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.042467225612451</v>
+        <v>1.067594388152425</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.041768838679887</v>
+        <v>1.04244815296874</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.173512950301747</v>
+        <v>1.168131791243626</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7616498122960741</v>
+        <v>0.7638348454776441</v>
       </c>
     </row>
     <row r="25">
